--- a/Table/client/lua/exe/temp/H 活动系统配置.xlsx
+++ b/Table/client/lua/exe/temp/H 活动系统配置.xlsx
@@ -1,36 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7E1C3B9-5384-4A17-AAC5-EFDC0666DAC4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -45,7 +40,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -74,7 +69,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -92,7 +87,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -109,7 +104,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -123,7 +118,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0">
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -139,7 +134,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0">
+    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -155,7 +150,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0">
+    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -183,7 +178,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0">
+    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -215,7 +210,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="133">
   <si>
     <t>活动ID</t>
   </si>
@@ -253,21 +248,9 @@
     <t>渠道配置</t>
   </si>
   <si>
-    <t>冲级豪礼</t>
-  </si>
-  <si>
     <t>七天</t>
   </si>
   <si>
-    <t>开服累充</t>
-  </si>
-  <si>
-    <t>首冲</t>
-  </si>
-  <si>
-    <t>集字有礼</t>
-  </si>
-  <si>
     <t>2018,10,19</t>
   </si>
   <si>
@@ -277,21 +260,9 @@
     <t>每日充值</t>
   </si>
   <si>
-    <t>开服冲榜</t>
-  </si>
-  <si>
-    <t>在活动时间内登陆游戏将获得大量元宝和银两奖励</t>
-  </si>
-  <si>
-    <t>消费不同额度元宝将获得大量奖励</t>
-  </si>
-  <si>
     <t>18:00:00-24:00:00</t>
   </si>
   <si>
-    <t>花光十个亿</t>
-  </si>
-  <si>
     <t>2019,10,19</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -304,46 +275,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>开服活动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回归豪礼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计消费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>双倍经验</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>副本双倍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登陆有礼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>容器-------回归豪礼，累计消费，双倍经验，副本双倍，登陆有礼，Boss掉落</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>容器-------集字有礼， 建帮立派， 仙盟争霸，Boss首杀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>猎杀BOSS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>限时云购</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>十倍返利</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -352,68 +283,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>全服全天开启副本掉落双倍。\n 1.每天将有不同的副本享受双倍加成，享受加成的副本将在日常活跃界面显示“掉落双倍”标识。\n 2. 通关副本可以获得双倍掉落和结算奖励。\n 3. 副本扫荡也可以获得双倍奖励。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建帮立派</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>道庭争霸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开服7天，一马当先创建道庭完成目标的庭主，将获得大量奖励，以带领道庭成员驰骋仙界</t>
-  </si>
-  <si>
-    <t>开服第3天21:00开启，在道庭战中获得主宰神殿掌控权的道庭将获得大量奖励（当前第X天）</t>
-  </si>
-  <si>
-    <t>神仙眷侣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第二阶段活动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开服第二阶段冲榜 法宝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开服第二阶段冲榜 图鉴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开服第二阶段冲榜 翅膀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>七日投资</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>限时抢购</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>许愿池</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开服仙途</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>仙途之路</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>永久绝版守护</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2011,1,1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -434,10 +307,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>仙途之路容器：仙途之路、材料掉落、商店兑换</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>材料掉落</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -446,27 +315,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>商店兑换</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[99886BFF]1、限时云购是将幸运大奖分成200等份，玩家每次购买随机获得1份保底奖励，购买份数越多，大奖的中奖几率越高；\n2、云购库存剩余份数为0时从200份中抽取1份揭晓幸运大奖；同时每日00:00刷新并开启当日幸运大奖，00:00开启规则如下：\n1）全服累计购买[67cc67]不足50份[-]时，有概率开启幸运大奖；\n2）全服累计购买[67cc67]50份以上[-]时，必有一位玩家获的幸运大奖；\n3、开奖之前已购买次数将累计，每次云购开奖后购买次数将重置；\n4、该玩法概率可前往官网查看。[-]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[99886BFF]执子之手，与子偕老。等级达到[67cc67]150级[-]可提亲，活动期间完成[67cc67]3挡提亲[-]，双方均可获得[67cc67]【三生三世神仙眷侣】[-]称号[-]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开服目标</t>
-  </si>
-  <si>
-    <t>每日宝箱</t>
-  </si>
-  <si>
-    <t>每天每次充值可领取一个宝箱，最多三次</t>
-  </si>
-  <si>
     <t>合服多少天开启</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -479,31 +327,3106 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>活动期间内，在线或离线挂机击败野外小怪，可获得“天、道、问、情”道具。世界BOSS和洞天福地击败BOSS，可获得“礼”道具。道具仅在活动期间内可用，过期可出售。</t>
-  </si>
-  <si>
-    <t>全服在18点-24点开启打怪经验双倍。\n 1.在野外击败怪物会获得怪物基础经验的双倍经验。\n 2. 可击怪物的副本，且击败会产生经验的，也可获得双倍经验， 例如经验副本、宠物副本等。\n 3. 离线挂机也可获得双倍经验收益。</t>
-  </si>
-  <si>
-    <t>在活动时间内击败世界Boss或洞天福地Boss均有几率获得100-1000不等的元宝或绑元</t>
-  </si>
-  <si>
-    <t>活动期间内击败游戏中不同的BOSS可获得不同的积分，积分达到条件即可领取丰厚绑元奖励</t>
-  </si>
-  <si>
     <t>创角时间开启</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>创角时间结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沖級豪禮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>開服累充</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首沖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>集字有禮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回歸豪禮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在活動時間內登陸遊戲將獲得大量元寶和銀兩獎勵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>累計消費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消費不同額度元寶將獲得大量獎勵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雙倍經驗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全服在18點-24點開啟打怪經驗雙倍。\n 1.在野外擊敗怪物會獲得怪物基礎經驗的雙倍經驗。\n 2. 可擊怪物的副本，且擊敗會產生經驗的，也可獲得雙倍經驗， 例如經驗副本、寵物副本等。\n 3. 離線掛機也可獲得雙倍經驗收益。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本雙倍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全服全天開啟副本掉落雙倍。\n 1.每天將有不同的副本享受雙倍加成，享受加成的副本將在日常活躍介面顯示“掉落雙倍”標識。\n 2. 通關副本可以獲得雙倍掉落和結算獎勵。\n 3. 副本掃蕩也可以獲得雙倍獎勵。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花光十個億</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>容器-------回歸豪禮，累計消費，雙倍經驗，副本雙倍，登陸有禮，Boss掉落</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陸有禮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在活動時間內擊敗世界Boss或洞天福地Boss均有幾率獲得100-1000不等的元寶或綁元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建幫立派</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>開服7天，一馬當先創建道庭完成目標的庭主，將獲得大量獎勵，以帶領道庭成員馳騁仙界</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道庭爭霸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>開服第3天21:00開啟，在道庭戰中獲得主宰神殿掌控權的道庭將獲得大量獎勵（當前第X天）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>開服活動</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>容器-------集字有禮， 建幫立派， 仙盟爭霸，Boss首殺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>獵殺BOSS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活動期間內擊敗遊戲中不同的BOSS可獲得不同的積分，積分達到條件即可領取豐厚綁元獎勵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>限時雲購</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[99886BFF]1、限時雲購是將幸運大獎分成200等份，玩家每次購買隨機獲得1份保底獎勵，購買份數越多，大獎的中獎幾率越高；\n2、雲購庫存剩餘份數為0時從200份中抽取1份揭曉幸運大獎；同時每日00:00刷新並開啟當日幸運大獎，00:00開啟規則如下：\n1）全服累計購買[67cc67]不足50份[-]時，有概率開啟幸運大獎；\n2）全服累計購買[67cc67]50份以上[-]時，必有一位玩家獲的幸運大獎；\n3、開獎之前已購買次數將累計，每次雲購開獎後購買次數將重置；\n4、該玩法概率可前往官網查看。[-]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神仙眷侶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[99886BFF]執子之手，與子偕老。等級達到[67cc67]150級[-]可提親，活動期間完成[67cc67]3擋提親[-]，雙方均可獲得[67cc67]【三生三世神仙眷侶】[-]稱號[-]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二階段活動</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>開服第二階段沖榜 翅膀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>開服第二階段沖榜 法寶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>開服第二階段沖榜 圖鑒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>七日投資</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>限時搶購</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>許願池</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>開服仙途</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>永久絕版守護</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仙途之路容器：仙途之路、材料掉落、商店兌換</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商店兌換</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>開服目標</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日寶箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天每次充值可領取一個寶箱，最多三次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>開服衝榜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活動期間內，線上或離線掛機擊敗野外小怪，可獲得“花、語、仙、戀”道具。世界BOSS和洞天福地擊敗BOSS，可獲得“禮”道具。道具僅在活動期間內可用，過期可出售。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨업 호화 패키지</t>
+  </si>
+  <si>
+    <t>7일</t>
+  </si>
+  <si>
+    <t>서버 오픈 누적충전</t>
+  </si>
+  <si>
+    <t>첫 상승</t>
+  </si>
+  <si>
+    <t>글자수집 선물</t>
+  </si>
+  <si>
+    <t>매일 충전</t>
+  </si>
+  <si>
+    <t>서버 오픈 랭킹 진입</t>
+  </si>
+  <si>
+    <t>복귀 호화 패키지</t>
+  </si>
+  <si>
+    <t>누적 소비</t>
+  </si>
+  <si>
+    <t>2배 경험치</t>
+  </si>
+  <si>
+    <t>2배 던전</t>
+  </si>
+  <si>
+    <t>10억 소진</t>
+  </si>
+  <si>
+    <t>로그인 선물</t>
+  </si>
+  <si>
+    <t>보스 드랍</t>
+  </si>
+  <si>
+    <t>문파 건립</t>
+  </si>
+  <si>
+    <t>도정쟁패</t>
+  </si>
+  <si>
+    <t>서버 오픈 이벤트</t>
+  </si>
+  <si>
+    <t>보스 사냥</t>
+  </si>
+  <si>
+    <t>10배 페이백</t>
+  </si>
+  <si>
+    <t>신선연인</t>
+  </si>
+  <si>
+    <t>2단계 이벤트</t>
+  </si>
+  <si>
+    <t>소원연못</t>
+  </si>
+  <si>
+    <t>서버 오픈 선도</t>
+  </si>
+  <si>
+    <t>영구 한정판 수호</t>
+  </si>
+  <si>
+    <t>동천복지 보스 돌풍</t>
+  </si>
+  <si>
+    <t>선도의 길 용기</t>
+  </si>
+  <si>
+    <t>재료 드랍</t>
+  </si>
+  <si>
+    <t>상점 교환</t>
+  </si>
+  <si>
+    <t>이벤트 기간에 온라인 또는 오프라인 자동전투로 필드 몬스터 처치 시 '천, 도, 문. 정' 아이템 획득할 수 있습니다. 세계 보스와 동천복지에서 보스를 처치하면 '예' 아이템을 획득할 수 있습니다. 아이템은 이벤트 기간에 사용 가능하며, 만료 시에는 판매할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>이벤트 기간 내에 게임에 로그인 시 대량의 원보와 은화 보상을 획득합니다.</t>
+  </si>
+  <si>
+    <t>소비한 원보 금액에 따라 대량의 보상을 획득합니다.</t>
+  </si>
+  <si>
+    <t>전 서버는 18시~24시에 몬스터사냥 경험치 2배가 오픈됩니다.\n1. 필드에서 몬스터를 처치하면 몬스터 기초 경험치의 2배를 획득합니다.\n2. 몬스터를 처치할 수 있는 던전, 처치 시 경험치가 생산되며 2배의 경험치를 획득할 수 있습니다. 예를 들어 경험치 던전과 펫 던전 등이 있습니다.\n 3. 오프라인 자동전투도 2배의 경험치를 획득할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>용기-------복귀 호화 패키지, 누적 소비, 경험치 2배, 2배 던전, 로그인 선물, 보스 드랍</t>
+  </si>
+  <si>
+    <t>이벤트 시간 내에 세계 보스 또는 동천복지 보스 처치 시 일정 확률로 100~1000의 원보 또는 귀속원보를 획득합니다.</t>
+  </si>
+  <si>
+    <t>용기-------글자수집 선물, 문파 건립, 선맹전, 보스 첫 처치</t>
+  </si>
+  <si>
+    <t>이벤트 기간 내에 게임의 여러 보스를 처치하면 여러 가지 점수를 획득합니다. 점수가 조건을 충족하면 풍성한 귀속원보 보상을 획득합니다.</t>
+  </si>
+  <si>
+    <t>서버 오픈 2단계 랭킹 진입 날개</t>
+  </si>
+  <si>
+    <t>서버 오픈 2단계 랭킹 진입 법보</t>
+  </si>
+  <si>
+    <t>서버 오픈 2단계 랭킹 진입 도감</t>
+  </si>
+  <si>
+    <t>7일 투자</t>
+  </si>
+  <si>
+    <t>선도의 길</t>
+  </si>
+  <si>
+    <t>선도의 길 용기: 선도의 길, 재료 드랍, 상점 교환</t>
+  </si>
+  <si>
+    <t>매일 첫 충전 시 보물상자 1개 수령 가능, 최대 3회까지</t>
+  </si>
+  <si>
+    <t>전 서버에서 24시간 동안 던전 2배 드랍이 오픈됩니다.\n 1. 매일 여러 던전에서 2배의 보너스를 획득할 수 있습니다. 보너스를 받을 수 있는 던전은 일일 활약 화면에서 “2배 드랍“ 마크가 표시됩니다.\n 2. 던전을 클리어하면 2배의 드랍과 결산 보상을 획득합니다.\n 3. 던전을 소탕해도 2배의 보상을 획득할 수 있습니다.</t>
+  </si>
+  <si>
+    <r>
+      <t>[99886BFF][67cc67]150</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="BatangChe"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>레벨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">[-] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="BatangChe"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이상</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="BatangChe"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>참여</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="BatangChe"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가능</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="BatangChe"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이벤트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="BatangChe"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시간에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> [67cc67]3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="BatangChe"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>회동안</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">[-] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="BatangChe"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>혼담</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="BatangChe"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>제기를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="BatangChe"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>완성</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="BatangChe"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="BatangChe"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>후</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="BatangChe"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>결혼해</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="BatangChe"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>보세요</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>! [-]</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오픈목표</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="BatangChe"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>서버</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="BatangChe"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>오픈</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="BatangChe"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="BatangChe"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>차</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 21:00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="BatangChe"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="BatangChe"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>오픈되며</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="BatangChe"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>길드전에서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="BatangChe"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>지배자신전의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="BatangChe"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>장악권을획득한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="BatangChe"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>길드은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="BatangChe"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대량의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="BatangChe"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>보상을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="BatangChe"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>획득합니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="BatangChe"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>현재</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="BatangChe"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="BatangChe"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>차</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[99886BFF]1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="BatangChe"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>한정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="BatangChe"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>구매는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="BatangChe"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>행운</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="BatangChe"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>보상</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="BatangChe"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>총</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 200</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="BatangChe"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>개로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="BatangChe"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>유저는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>\n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="BatangChe"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>매번</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="BatangChe"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>구매</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="BatangChe"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시마다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="BatangChe"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>랜덤으로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="BatangChe"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>개의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="BatangChe"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>최저</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="BatangChe"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>보상을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>\n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="BatangChe"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>획득합니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="BatangChe"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>구매</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="BatangChe"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="BatangChe"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>많을수록</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="BatangChe"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>보상의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="BatangChe"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>당첨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>\n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="BatangChe"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>확률이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="BatangChe"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>증가합니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.\n2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="BatangChe"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>남은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="BatangChe"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수량이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="BatangChe"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="BatangChe"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>되면</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 200</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="BatangChe"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>개</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="BatangChe"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="BatangChe"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>행운</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="BatangChe"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>보상</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>\n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="BatangChe"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="BatangChe"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>개</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="BatangChe"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>뽑아</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="BatangChe"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>지급되며</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="BatangChe"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>매일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 00:00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="BatangChe"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="BatangChe"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>리셋되고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>\n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="BatangChe"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>당일의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="BatangChe"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>행운</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="BatangChe"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>보상이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="BatangChe"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>공개됩니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="BatangChe"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시작</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="BatangChe"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>규칙은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>\n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="BatangChe"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>다음과</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="BatangChe"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>같습니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.\n1)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="BatangChe"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>전</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="BatangChe"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>서버</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="BatangChe"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>누적</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="BatangChe"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>구매가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> [67cc67]50</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="BatangChe"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>개</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="BatangChe"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이하</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>[-]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="BatangChe"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="BatangChe"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="BatangChe"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> \n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="BatangChe"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>확률로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="BatangChe"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>행운</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="BatangChe"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>보상이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="BatangChe"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>오픈됩니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.\n2)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="BatangChe"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>전</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="BatangChe"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>서버</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="BatangChe"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>누적</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="BatangChe"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>구매가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> [67cc67]50</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="BatangChe"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>개</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="BatangChe"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이상</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>[-]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="BatangChe"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="BatangChe"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="BatangChe"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>반드</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>\n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="BatangChe"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시유저</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="BatangChe"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="BatangChe"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>명은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="BatangChe"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>행운</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="BatangChe"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>보상을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="BatangChe"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>획득합니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.\n3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="BatangChe"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>추첨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="BatangChe"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이전의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="BatangChe"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>구매</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="BatangChe"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>횟수는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="BatangChe"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>누적되며</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="BatangChe"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>구매</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="BatangChe"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>추첨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>\n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="BatangChe"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>후에는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="BatangChe"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>횟수가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="BatangChe"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>초기화됩니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">.\n4. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="BatangChe"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>해당</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="BatangChe"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>콘텐츠의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="BatangChe"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>확률은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="BatangChe"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>공식</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="BatangChe"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>커뮤니티에서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="BatangChe"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>찾아</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>\n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="BatangChe"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>보실</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="BatangChe"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="BatangChe"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>있습니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.[-]</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한정구매</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="BatangChe"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>서버</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="BatangChe"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>오픈</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="BatangChe"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="BatangChe"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>길드를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="BatangChe"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>생성하여</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="BatangChe"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>목표를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="BatangChe"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>완료한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="BatangChe"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>길드장은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="BatangChe"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대량의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="BatangChe"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>보상을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>\n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="BatangChe"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>획득</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="BatangChe"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>길드원들을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="BatangChe"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이끌어</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="BatangChe"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>길드를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="BatangChe"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>발전시켜보세요</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보물상자</t>
+  </si>
+  <si>
+    <t>선착순구매</t>
+  </si>
+  <si>
+    <t>2021,2,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021,2,3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -540,6 +3463,20 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="BatangChe"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -567,7 +3504,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="21" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -578,6 +3515,8 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -857,11 +3796,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:U36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E7" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="K37" sqref="K37"/>
+    <sheetView tabSelected="1" topLeftCell="G10" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -869,27 +3808,29 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22" style="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="12.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="79.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.75" style="1" customWidth="1"/>
-    <col min="9" max="9" width="32.75" style="1" customWidth="1"/>
-    <col min="10" max="11" width="22.125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.5" style="1" customWidth="1"/>
-    <col min="15" max="15" width="35.375" style="3" customWidth="1"/>
-    <col min="16" max="16" width="17.25" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="1"/>
+    <col min="4" max="4" width="17.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="146.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="79.375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.75" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14" style="1" customWidth="1"/>
+    <col min="10" max="10" width="16.75" style="1" customWidth="1"/>
+    <col min="11" max="11" width="32.75" style="1" customWidth="1"/>
+    <col min="12" max="13" width="22.125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8" style="1" customWidth="1"/>
+    <col min="16" max="16" width="10.5" style="1" customWidth="1"/>
+    <col min="17" max="17" width="35.375" style="3" customWidth="1"/>
+    <col min="18" max="18" width="17.25" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -897,47 +3838,47 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="L1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>71</v>
+      <c r="R1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1001</v>
       </c>
@@ -948,28 +3889,34 @@
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="1">
+        <v>35</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="1">
         <v>30</v>
       </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
       <c r="K2" s="2"/>
-      <c r="L2" s="1">
-        <v>1</v>
-      </c>
-      <c r="M2" s="1">
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="1">
+        <v>1</v>
+      </c>
+      <c r="O2" s="1">
         <v>9999</v>
       </c>
-      <c r="N2" s="1">
+      <c r="P2" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1002</v>
       </c>
@@ -980,25 +3927,31 @@
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="1">
+        <v>12</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="1">
         <v>30</v>
       </c>
-      <c r="L3" s="1">
-        <v>1</v>
-      </c>
-      <c r="M3" s="1">
+      <c r="N3" s="1">
+        <v>1</v>
+      </c>
+      <c r="O3" s="1">
         <v>9999</v>
       </c>
-      <c r="N3" s="1">
+      <c r="P3" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>1003</v>
       </c>
@@ -1009,25 +3962,31 @@
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="1">
-        <v>100</v>
-      </c>
-      <c r="J4" s="1">
-        <v>1</v>
-      </c>
-      <c r="K4" s="1">
+        <v>36</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
+      <c r="L4" s="1">
+        <v>1</v>
+      </c>
+      <c r="M4" s="1">
         <v>7</v>
       </c>
-      <c r="N4" s="1">
+      <c r="P4" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>1004</v>
       </c>
@@ -1038,22 +3997,28 @@
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>15</v>
+        <v>82</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L5" s="1">
-        <v>1</v>
-      </c>
-      <c r="M5" s="1">
+        <v>37</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N5" s="1">
+        <v>1</v>
+      </c>
+      <c r="O5" s="1">
         <v>9999</v>
       </c>
-      <c r="N5" s="1">
+      <c r="P5" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>1005</v>
       </c>
@@ -1064,25 +4029,31 @@
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F6" s="1">
+        <v>38</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H6" s="1">
         <v>60</v>
       </c>
-      <c r="L6" s="1">
-        <v>1</v>
-      </c>
-      <c r="M6" s="1">
+      <c r="N6" s="1">
+        <v>1</v>
+      </c>
+      <c r="O6" s="1">
         <v>8</v>
       </c>
-      <c r="N6" s="1">
+      <c r="P6" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>1006</v>
       </c>
@@ -1093,25 +4064,31 @@
         <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>19</v>
+        <v>84</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="1">
+        <v>15</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="1">
         <v>55</v>
       </c>
-      <c r="L7" s="1">
-        <v>1</v>
-      </c>
-      <c r="M7" s="1">
+      <c r="N7" s="1">
+        <v>1</v>
+      </c>
+      <c r="O7" s="1">
         <v>9999</v>
       </c>
-      <c r="N7" s="1">
+      <c r="P7" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>1007</v>
       </c>
@@ -1122,25 +4099,31 @@
         <v>1</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="1">
+        <v>77</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H8" s="1">
         <v>45</v>
       </c>
-      <c r="L8" s="1">
-        <v>1</v>
-      </c>
-      <c r="M8" s="1">
+      <c r="N8" s="1">
+        <v>1</v>
+      </c>
+      <c r="O8" s="1">
         <v>8</v>
       </c>
-      <c r="N8" s="1">
+      <c r="P8" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>1008</v>
       </c>
@@ -1151,22 +4134,28 @@
         <v>2</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>29</v>
+        <v>86</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>21</v>
+        <v>39</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N9" s="1">
+        <v>40</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P9" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>1009</v>
       </c>
@@ -1177,22 +4166,28 @@
         <v>2</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>30</v>
+        <v>87</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>22</v>
+        <v>41</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>109</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="N10" s="1">
+        <v>42</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P10" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>1010</v>
       </c>
@@ -1203,28 +4198,34 @@
         <v>2</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>31</v>
+        <v>88</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F11" s="1">
-        <v>1</v>
+        <v>43</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>110</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>18</v>
+        <v>44</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="N11" s="1">
+        <v>13</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P11" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>1011</v>
       </c>
@@ -1235,25 +4236,31 @@
         <v>2</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>32</v>
+        <v>89</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F12" s="1">
-        <v>1</v>
+        <v>45</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="N12" s="1">
+        <v>46</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P12" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>1013</v>
       </c>
@@ -1264,26 +4271,32 @@
         <v>3</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>24</v>
+        <v>90</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F13" s="1">
+        <v>47</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H13" s="1">
         <v>100</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="N13" s="1">
-        <v>1</v>
-      </c>
-      <c r="S13" s="6"/>
+      <c r="I13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P13" s="1">
+        <v>1</v>
+      </c>
+      <c r="U13" s="6"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>1014</v>
       </c>
@@ -1294,19 +4307,22 @@
         <v>2</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="N14" s="1">
+        <v>91</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P14" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>1015</v>
       </c>
@@ -1317,22 +4333,28 @@
         <v>2</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>27</v>
+        <v>92</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>75</v>
+        <v>19</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>112</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="N15" s="1">
+        <v>50</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P15" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>1016</v>
       </c>
@@ -1343,25 +4365,31 @@
         <v>1</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F16" s="1">
+        <v>51</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H16" s="1">
         <v>31</v>
       </c>
-      <c r="L16" s="1">
-        <v>1</v>
-      </c>
-      <c r="M16" s="1">
+      <c r="N16" s="1">
+        <v>1</v>
+      </c>
+      <c r="O16" s="1">
         <v>7</v>
       </c>
-      <c r="N16" s="1">
+      <c r="P16" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>1017</v>
       </c>
@@ -1372,25 +4400,31 @@
         <v>1</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F17" s="1">
+        <v>53</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H17" s="1">
         <v>80</v>
       </c>
-      <c r="L17" s="1">
-        <v>1</v>
-      </c>
-      <c r="M17" s="1">
+      <c r="N17" s="1">
+        <v>1</v>
+      </c>
+      <c r="O17" s="1">
         <v>4</v>
       </c>
-      <c r="N17" s="1">
+      <c r="P17" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>1018</v>
       </c>
@@ -1401,13 +4435,19 @@
         <v>3</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>28</v>
+        <v>95</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>35</v>
+        <v>55</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>1019</v>
       </c>
@@ -1418,25 +4458,31 @@
         <v>1</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>36</v>
+        <v>96</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F19" s="1">
+        <v>57</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H19" s="1">
         <v>60</v>
       </c>
-      <c r="L19" s="1">
-        <v>1</v>
-      </c>
-      <c r="M19" s="1">
+      <c r="N19" s="1">
+        <v>1</v>
+      </c>
+      <c r="O19" s="1">
         <v>8</v>
       </c>
-      <c r="N19" s="1">
+      <c r="P19" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:17" ht="66" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>1020</v>
       </c>
@@ -1447,25 +4493,31 @@
         <v>1</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>37</v>
+        <v>127</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F20" s="1">
+        <v>59</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H20" s="1">
         <v>100</v>
       </c>
-      <c r="L20" s="1">
-        <v>1</v>
-      </c>
-      <c r="M20" s="1">
+      <c r="N20" s="1">
+        <v>1</v>
+      </c>
+      <c r="O20" s="1">
         <v>7</v>
       </c>
-      <c r="N20" s="1">
+      <c r="P20" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>1021</v>
       </c>
@@ -1476,25 +4528,31 @@
         <v>1</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F21" s="1">
+        <v>20</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21" s="1">
         <v>45</v>
       </c>
-      <c r="L21" s="1">
-        <v>1</v>
-      </c>
-      <c r="M21" s="1">
+      <c r="N21" s="1">
+        <v>1</v>
+      </c>
+      <c r="O21" s="1">
         <v>9999</v>
       </c>
-      <c r="N21" s="1">
+      <c r="P21" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>1022</v>
       </c>
@@ -1505,25 +4563,31 @@
         <v>4</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>45</v>
+        <v>98</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F22" s="1">
+        <v>61</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H22" s="1">
         <v>100</v>
       </c>
-      <c r="J22" s="1">
-        <v>1</v>
-      </c>
-      <c r="K22" s="1">
+      <c r="L22" s="1">
+        <v>1</v>
+      </c>
+      <c r="M22" s="1">
         <v>7</v>
       </c>
-      <c r="N22" s="1">
+      <c r="P22" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>1023</v>
       </c>
@@ -1534,25 +4598,31 @@
         <v>1</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>46</v>
+        <v>99</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F23" s="1">
+        <v>63</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H23" s="1">
         <v>100</v>
       </c>
-      <c r="L23" s="7">
+      <c r="N23" s="7">
         <v>8</v>
       </c>
-      <c r="M23" s="7">
+      <c r="O23" s="7">
         <v>10</v>
       </c>
-      <c r="N23" s="1">
+      <c r="P23" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>1024</v>
       </c>
@@ -1563,25 +4633,31 @@
         <v>1</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>46</v>
+        <v>99</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F24" s="1">
+        <v>63</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H24" s="1">
         <v>100</v>
       </c>
-      <c r="L24" s="7">
+      <c r="N24" s="7">
         <v>10</v>
       </c>
-      <c r="M24" s="7">
+      <c r="O24" s="7">
         <v>12</v>
       </c>
-      <c r="N24" s="1">
+      <c r="P24" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>1025</v>
       </c>
@@ -1592,25 +4668,31 @@
         <v>1</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>46</v>
+        <v>99</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F25" s="1">
+        <v>63</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H25" s="1">
         <v>100</v>
       </c>
-      <c r="L25" s="7">
+      <c r="N25" s="7">
         <v>12</v>
       </c>
-      <c r="M25" s="7">
+      <c r="O25" s="7">
         <v>14</v>
       </c>
-      <c r="N25" s="1">
+      <c r="P25" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>1026</v>
       </c>
@@ -1621,25 +4703,31 @@
         <v>1</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>46</v>
+        <v>99</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F26" s="1">
+        <v>63</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H26" s="1">
         <v>100</v>
       </c>
-      <c r="L26" s="1">
+      <c r="N26" s="1">
         <v>8</v>
       </c>
-      <c r="M26" s="1">
+      <c r="O26" s="1">
         <v>14</v>
       </c>
-      <c r="N26" s="1">
+      <c r="P26" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>1027</v>
       </c>
@@ -1650,25 +4738,31 @@
         <v>1</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>46</v>
+        <v>99</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F27" s="1">
+        <v>63</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H27" s="1">
         <v>100</v>
       </c>
-      <c r="L27" s="1">
+      <c r="N27" s="1">
         <v>999</v>
       </c>
-      <c r="M27" s="1">
+      <c r="O27" s="1">
         <v>999</v>
       </c>
-      <c r="N27" s="1">
+      <c r="P27" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>1028</v>
       </c>
@@ -1679,25 +4773,31 @@
         <v>1</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F28" s="1">
+        <v>69</v>
+      </c>
+      <c r="F28" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="L28" s="1">
+      <c r="G28" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H28" s="1">
+        <v>100</v>
+      </c>
+      <c r="N28" s="1">
         <v>6</v>
       </c>
-      <c r="M28" s="1">
+      <c r="O28" s="1">
         <v>6</v>
       </c>
-      <c r="N28" s="1">
+      <c r="P28" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>1029</v>
       </c>
@@ -1708,25 +4808,31 @@
         <v>1</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>53</v>
+        <v>101</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F29" s="1">
+        <v>70</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H29" s="1">
         <v>100</v>
       </c>
-      <c r="L29" s="1">
+      <c r="N29" s="1">
         <v>8</v>
       </c>
-      <c r="M29" s="1">
+      <c r="O29" s="1">
         <v>14</v>
       </c>
-      <c r="N29" s="1">
+      <c r="P29" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>1030</v>
       </c>
@@ -1734,25 +4840,28 @@
         <v>0</v>
       </c>
       <c r="C30" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F30" s="1">
+        <v>102</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H30" s="1">
         <v>150</v>
       </c>
-      <c r="L30" s="1">
-        <v>999</v>
-      </c>
-      <c r="M30" s="1">
-        <v>999</v>
-      </c>
-      <c r="N30" s="1">
+      <c r="I30" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="P30" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>1031</v>
       </c>
@@ -1763,28 +4872,34 @@
         <v>2</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>58</v>
+        <v>103</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F31" s="1">
+        <v>25</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H31" s="1">
         <v>160</v>
       </c>
-      <c r="G31" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="I31" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="N31" s="1">
+        <v>23</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P31" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A32" s="4">
         <v>1032</v>
       </c>
@@ -1795,14 +4910,20 @@
         <v>3</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>60</v>
+        <v>104</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="O32" s="5"/>
+        <v>27</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q32" s="5"/>
     </row>
-    <row r="33" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A33" s="4">
         <v>1034</v>
       </c>
@@ -1813,26 +4934,32 @@
         <v>1</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>62</v>
+        <v>105</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F33" s="4">
+        <v>28</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H33" s="4">
         <v>100</v>
       </c>
-      <c r="L33" s="4">
+      <c r="N33" s="4">
         <v>8</v>
       </c>
-      <c r="M33" s="4">
+      <c r="O33" s="4">
         <v>14</v>
       </c>
-      <c r="N33" s="4">
+      <c r="P33" s="4">
         <v>2</v>
       </c>
-      <c r="O33" s="5"/>
+      <c r="Q33" s="5"/>
     </row>
-    <row r="34" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A34" s="4">
         <v>1035</v>
       </c>
@@ -1843,26 +4970,32 @@
         <v>1</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>64</v>
+        <v>106</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F34" s="4">
+        <v>73</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H34" s="4">
         <v>100</v>
       </c>
-      <c r="L34" s="4">
+      <c r="N34" s="4">
         <v>8</v>
       </c>
-      <c r="M34" s="4">
+      <c r="O34" s="4">
         <v>14</v>
       </c>
-      <c r="N34" s="4">
-        <v>1</v>
-      </c>
-      <c r="O34" s="5"/>
+      <c r="P34" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q34" s="5"/>
     </row>
-    <row r="35" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A35" s="4">
         <v>1036</v>
       </c>
@@ -1872,24 +5005,30 @@
       <c r="C35" s="4">
         <v>4</v>
       </c>
-      <c r="D35" s="4" t="s">
-        <v>67</v>
+      <c r="D35" s="8" t="s">
+        <v>124</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F35" s="4">
+        <v>74</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H35" s="4">
         <v>140</v>
       </c>
-      <c r="J35" s="4">
-        <v>1</v>
-      </c>
-      <c r="K35" s="4">
+      <c r="L35" s="4">
+        <v>1</v>
+      </c>
+      <c r="M35" s="4">
         <v>7</v>
       </c>
-      <c r="O35" s="5"/>
+      <c r="Q35" s="5"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>1037</v>
       </c>
@@ -1900,21 +5039,27 @@
         <v>1</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>68</v>
+        <v>129</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F36" s="1">
+        <v>75</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H36" s="1">
         <v>100</v>
       </c>
-      <c r="L36" s="1">
-        <v>1</v>
-      </c>
-      <c r="M36" s="1">
+      <c r="N36" s="1">
+        <v>1</v>
+      </c>
+      <c r="O36" s="1">
         <v>9999</v>
       </c>
-      <c r="N36" s="1">
+      <c r="P36" s="1">
         <v>1</v>
       </c>
     </row>
